--- a/1. Building/Finals/Stat_106.xlsx
+++ b/1. Building/Finals/Stat_106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tln229\Downloads\Python\1. Building\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F2E83-DEAB-48D7-B17C-C64F27CFAEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2656C-11A6-45B9-8C60-7B81C790812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GP" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -160,13 +160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +443,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -607,13 +600,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE41F53-5E36-4979-B156-444350A2004A}">
   <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="9" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -629,7 +622,7 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -646,7 +639,7 @@
       <c r="D2" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>-1.0109999999999999</v>
       </c>
     </row>
@@ -663,7 +656,7 @@
       <c r="D3" s="4">
         <v>0.01</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>-0.62177000000000004</v>
       </c>
     </row>
@@ -680,7 +673,7 @@
       <c r="D4" s="4">
         <v>0.1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>-0.20999000000000001</v>
       </c>
     </row>
@@ -697,7 +690,7 @@
       <c r="D5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>-0.10254000000000001</v>
       </c>
     </row>
@@ -714,7 +707,7 @@
       <c r="D6" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>-0.95608000000000004</v>
       </c>
     </row>
@@ -731,7 +724,7 @@
       <c r="D7" s="4">
         <v>0.01</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>-3.1098000000000001E-2</v>
       </c>
     </row>
@@ -748,7 +741,7 @@
       <c r="D8" s="4">
         <v>0.1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>0.36420999999999998</v>
       </c>
     </row>
@@ -765,7 +758,7 @@
       <c r="D9" s="4">
         <v>0.2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>-0.73623000000000005</v>
       </c>
     </row>
@@ -782,7 +775,7 @@
       <c r="D10" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>-0.56428999999999996</v>
       </c>
     </row>
@@ -799,7 +792,7 @@
       <c r="D11" s="4">
         <v>0.01</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>-0.52661999999999998</v>
       </c>
     </row>
@@ -816,7 +809,7 @@
       <c r="D12" s="4">
         <v>0.1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>-0.93335000000000001</v>
       </c>
     </row>
@@ -833,7 +826,7 @@
       <c r="D13" s="4">
         <v>0.2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>-4.1664000000000002E-4</v>
       </c>
     </row>
@@ -850,7 +843,7 @@
       <c r="D14" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>-0.58699000000000001</v>
       </c>
     </row>
@@ -867,7 +860,7 @@
       <c r="D15" s="4">
         <v>0.01</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>-0.44113999999999998</v>
       </c>
     </row>
@@ -884,7 +877,7 @@
       <c r="D16" s="4">
         <v>0.1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>-4.1639999999999998E-4</v>
       </c>
     </row>
@@ -901,7 +894,7 @@
       <c r="D17" s="4">
         <v>0.2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>-4.1722999999999999E-4</v>
       </c>
     </row>
@@ -918,7 +911,7 @@
       <c r="D18" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>-0.88492999999999999</v>
       </c>
     </row>
@@ -935,7 +928,7 @@
       <c r="D19" s="4">
         <v>0.01</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <v>-0.83333999999999997</v>
       </c>
     </row>
@@ -952,7 +945,7 @@
       <c r="D20" s="4">
         <v>0.1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <v>-0.36168</v>
       </c>
     </row>
@@ -969,7 +962,7 @@
       <c r="D21" s="4">
         <v>0.2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="4">
         <v>-0.31334000000000001</v>
       </c>
     </row>
@@ -986,7 +979,7 @@
       <c r="D22" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="4">
         <v>-0.91771999999999998</v>
       </c>
     </row>
@@ -1003,7 +996,7 @@
       <c r="D23" s="4">
         <v>0.01</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>-0.70906999999999998</v>
       </c>
     </row>
@@ -1020,7 +1013,7 @@
       <c r="D24" s="4">
         <v>0.1</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>-1.1424E-2</v>
       </c>
     </row>
@@ -1037,7 +1030,7 @@
       <c r="D25" s="4">
         <v>0.2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>-0.41892000000000001</v>
       </c>
     </row>
@@ -1054,7 +1047,7 @@
       <c r="D26" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>-0.53920999999999997</v>
       </c>
     </row>
@@ -1071,7 +1064,7 @@
       <c r="D27" s="4">
         <v>0.01</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>-0.57228999999999997</v>
       </c>
     </row>
@@ -1088,7 +1081,7 @@
       <c r="D28" s="4">
         <v>0.1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="4">
         <v>-0.57948</v>
       </c>
     </row>
@@ -1105,7 +1098,7 @@
       <c r="D29" s="4">
         <v>0.2</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="4">
         <v>-0.48086000000000001</v>
       </c>
     </row>
@@ -1122,7 +1115,7 @@
       <c r="D30" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <v>-0.60919000000000001</v>
       </c>
     </row>
@@ -1139,7 +1132,7 @@
       <c r="D31" s="4">
         <v>0.01</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <v>-0.55900000000000005</v>
       </c>
     </row>
@@ -1156,7 +1149,7 @@
       <c r="D32" s="4">
         <v>0.1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="4">
         <v>-1.0329999999999999</v>
       </c>
     </row>
@@ -1173,7 +1166,7 @@
       <c r="D33" s="4">
         <v>0.2</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="4">
         <v>-9.2870000000000008</v>
       </c>
     </row>
@@ -1190,7 +1183,7 @@
       <c r="D34" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="4">
         <v>-0.92386999999999997</v>
       </c>
     </row>
@@ -1207,7 +1200,7 @@
       <c r="D35" s="4">
         <v>0.01</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="4">
         <v>-0.86743000000000003</v>
       </c>
     </row>
@@ -1224,7 +1217,7 @@
       <c r="D36" s="4">
         <v>0.1</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="4">
         <v>-0.84723000000000004</v>
       </c>
     </row>
@@ -1241,7 +1234,7 @@
       <c r="D37" s="4">
         <v>0.2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="4">
         <v>-0.86365000000000003</v>
       </c>
     </row>
@@ -1258,7 +1251,7 @@
       <c r="D38" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="4">
         <v>-0.90415000000000001</v>
       </c>
     </row>
@@ -1275,7 +1268,7 @@
       <c r="D39" s="4">
         <v>0.01</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="4">
         <v>-0.90854000000000001</v>
       </c>
     </row>
@@ -1292,7 +1285,7 @@
       <c r="D40" s="4">
         <v>0.1</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="4">
         <v>-0.47199000000000002</v>
       </c>
     </row>
@@ -1309,7 +1302,7 @@
       <c r="D41" s="4">
         <v>0.2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
         <v>-0.62085999999999997</v>
       </c>
     </row>
@@ -1326,7 +1319,7 @@
       <c r="D42" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="4">
         <v>-0.88571</v>
       </c>
     </row>
@@ -1343,7 +1336,7 @@
       <c r="D43" s="4">
         <v>0.01</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="4">
         <v>-0.88926000000000005</v>
       </c>
     </row>
@@ -1360,7 +1353,7 @@
       <c r="D44" s="4">
         <v>0.1</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="4">
         <v>-0.64278000000000002</v>
       </c>
     </row>
@@ -1377,7 +1370,7 @@
       <c r="D45" s="4">
         <v>0.2</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="4">
         <v>-0.45562000000000002</v>
       </c>
     </row>
@@ -1394,7 +1387,7 @@
       <c r="D46" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="4">
         <v>-0.76395999999999997</v>
       </c>
     </row>
@@ -1411,7 +1404,7 @@
       <c r="D47" s="4">
         <v>0.01</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="4">
         <v>-0.74014999999999997</v>
       </c>
     </row>
@@ -1428,7 +1421,7 @@
       <c r="D48" s="4">
         <v>0.1</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="4">
         <v>-0.36556</v>
       </c>
     </row>
@@ -1445,7 +1438,7 @@
       <c r="D49" s="4">
         <v>0.2</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="4">
         <v>-1.0302</v>
       </c>
     </row>
@@ -1462,7 +1455,7 @@
       <c r="D50" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="4">
         <v>-0.87448000000000004</v>
       </c>
     </row>
@@ -1479,7 +1472,7 @@
       <c r="D51" s="4">
         <v>0.01</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="4">
         <v>-0.82516999999999996</v>
       </c>
     </row>
@@ -1496,7 +1489,7 @@
       <c r="D52" s="4">
         <v>0.1</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="4">
         <v>-0.82152000000000003</v>
       </c>
     </row>
@@ -1513,7 +1506,7 @@
       <c r="D53" s="4">
         <v>0.2</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="4">
         <v>-0.83928000000000003</v>
       </c>
     </row>
@@ -1530,7 +1523,7 @@
       <c r="D54" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="4">
         <v>-0.87387000000000004</v>
       </c>
     </row>
@@ -1547,7 +1540,7 @@
       <c r="D55" s="4">
         <v>0.01</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="4">
         <v>-0.88817999999999997</v>
       </c>
     </row>
@@ -1564,7 +1557,7 @@
       <c r="D56" s="4">
         <v>0.1</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="4">
         <v>-0.91388999999999998</v>
       </c>
     </row>
@@ -1581,7 +1574,7 @@
       <c r="D57" s="4">
         <v>0.2</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="4">
         <v>-0.72516999999999998</v>
       </c>
     </row>
@@ -1598,7 +1591,7 @@
       <c r="D58" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="4">
         <v>-0.87217</v>
       </c>
     </row>
@@ -1615,7 +1608,7 @@
       <c r="D59" s="4">
         <v>0.01</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="4">
         <v>-0.88293999999999995</v>
       </c>
     </row>
@@ -1632,7 +1625,7 @@
       <c r="D60" s="4">
         <v>0.1</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="4">
         <v>-0.80645999999999995</v>
       </c>
     </row>
@@ -1649,7 +1642,7 @@
       <c r="D61" s="4">
         <v>0.2</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="4">
         <v>-0.67145999999999995</v>
       </c>
     </row>
@@ -1666,7 +1659,7 @@
       <c r="D62" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="4">
         <v>-0.85265999999999997</v>
       </c>
     </row>
@@ -1683,7 +1676,7 @@
       <c r="D63" s="4">
         <v>0.01</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="4">
         <v>-0.82365999999999995</v>
       </c>
     </row>
@@ -1700,7 +1693,7 @@
       <c r="D64" s="4">
         <v>0.1</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="4">
         <v>-0.72009000000000001</v>
       </c>
     </row>
@@ -1717,7 +1710,7 @@
       <c r="D65" s="4">
         <v>0.2</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="4">
         <v>-0.70528000000000002</v>
       </c>
     </row>
@@ -1734,7 +1727,7 @@
       <c r="D66" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="4">
         <v>-1.0310999999999999</v>
       </c>
     </row>
@@ -1751,7 +1744,7 @@
       <c r="D67" s="4">
         <v>0.01</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="4">
         <v>0.76190000000000002</v>
       </c>
     </row>
@@ -1768,7 +1761,7 @@
       <c r="D68" s="4">
         <v>0.1</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="4">
         <v>0.83209999999999995</v>
       </c>
     </row>
@@ -1785,7 +1778,7 @@
       <c r="D69" s="4">
         <v>0.2</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="4">
         <v>0.83701999999999999</v>
       </c>
     </row>
@@ -1802,7 +1795,7 @@
       <c r="D70" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="4">
         <v>-0.98316000000000003</v>
       </c>
     </row>
@@ -1819,7 +1812,7 @@
       <c r="D71" s="4">
         <v>0.01</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="4">
         <v>-0.65764</v>
       </c>
     </row>
@@ -1836,7 +1829,7 @@
       <c r="D72" s="4">
         <v>0.1</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="4">
         <v>-0.34011000000000002</v>
       </c>
     </row>
@@ -1853,7 +1846,7 @@
       <c r="D73" s="4">
         <v>0.2</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="4">
         <v>-0.76160000000000005</v>
       </c>
     </row>
@@ -1870,7 +1863,7 @@
       <c r="D74" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="4">
         <v>-0.90976000000000001</v>
       </c>
     </row>
@@ -1887,7 +1880,7 @@
       <c r="D75" s="4">
         <v>0.01</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="4">
         <v>-0.92508999999999997</v>
       </c>
     </row>
@@ -1904,7 +1897,7 @@
       <c r="D76" s="4">
         <v>0.1</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="4">
         <v>-0.94428000000000001</v>
       </c>
     </row>
@@ -1921,7 +1914,7 @@
       <c r="D77" s="4">
         <v>0.2</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="4">
         <v>-3.9101000000000001E-4</v>
       </c>
     </row>
@@ -1938,7 +1931,7 @@
       <c r="D78" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="4">
         <v>-0.86890999999999996</v>
       </c>
     </row>
@@ -1955,7 +1948,7 @@
       <c r="D79" s="4">
         <v>0.01</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="4">
         <v>-0.90476000000000001</v>
       </c>
     </row>
@@ -1972,7 +1965,7 @@
       <c r="D80" s="4">
         <v>0.1</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="4">
         <v>-3.8957999999999999E-4</v>
       </c>
     </row>
@@ -1989,7 +1982,7 @@
       <c r="D81" s="4">
         <v>0.2</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="4">
         <v>-3.8992999999999997E-4</v>
       </c>
     </row>
@@ -2006,7 +1999,7 @@
       <c r="D82" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="4">
         <v>-0.67698000000000003</v>
       </c>
     </row>
@@ -2023,7 +2016,7 @@
       <c r="D83" s="4">
         <v>0.01</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="4">
         <v>-0.66488000000000003</v>
       </c>
     </row>
@@ -2040,7 +2033,7 @@
       <c r="D84" s="4">
         <v>0.1</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="4">
         <v>-0.53532000000000002</v>
       </c>
     </row>
@@ -2057,7 +2050,7 @@
       <c r="D85" s="4">
         <v>0.2</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="4">
         <v>0.22178999999999999</v>
       </c>
     </row>
@@ -2074,7 +2067,7 @@
       <c r="D86" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="4">
         <v>-0.30976999999999999</v>
       </c>
     </row>
@@ -2091,7 +2084,7 @@
       <c r="D87" s="4">
         <v>0.01</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="4">
         <v>-0.25019999999999998</v>
       </c>
     </row>
@@ -2108,7 +2101,7 @@
       <c r="D88" s="4">
         <v>0.1</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="4">
         <v>-0.23699999999999999</v>
       </c>
     </row>
@@ -2125,7 +2118,7 @@
       <c r="D89" s="4">
         <v>0.2</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="4">
         <v>0.30947000000000002</v>
       </c>
     </row>
@@ -2142,7 +2135,7 @@
       <c r="D90" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="4">
         <v>-0.89559</v>
       </c>
     </row>
@@ -2159,7 +2152,7 @@
       <c r="D91" s="4">
         <v>0.01</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="4">
         <v>-0.61080000000000001</v>
       </c>
     </row>
@@ -2176,7 +2169,7 @@
       <c r="D92" s="4">
         <v>0.1</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="4">
         <v>-0.80035000000000001</v>
       </c>
     </row>
@@ -2193,7 +2186,7 @@
       <c r="D93" s="4">
         <v>0.2</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="4">
         <v>-0.44484000000000001</v>
       </c>
     </row>
@@ -2210,7 +2203,7 @@
       <c r="D94" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="4">
         <v>-0.86826999999999999</v>
       </c>
     </row>
@@ -2227,7 +2220,7 @@
       <c r="D95" s="4">
         <v>0.01</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="4">
         <v>-0.88260000000000005</v>
       </c>
     </row>
@@ -2244,7 +2237,7 @@
       <c r="D96" s="4">
         <v>0.1</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="4">
         <v>-1.0610999999999999</v>
       </c>
     </row>
@@ -2261,7 +2254,7 @@
       <c r="D97" s="4">
         <v>0.2</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="4">
         <v>-3.8957999999999999E-4</v>
       </c>
     </row>
@@ -2278,7 +2271,7 @@
       <c r="D98" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="4">
         <v>-0.87300999999999995</v>
       </c>
     </row>
@@ -2295,7 +2288,7 @@
       <c r="D99" s="4">
         <v>0.01</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="4">
         <v>-0.84216999999999997</v>
       </c>
     </row>
@@ -2312,7 +2305,7 @@
       <c r="D100" s="4">
         <v>0.1</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="4">
         <v>-0.89219000000000004</v>
       </c>
     </row>
@@ -2329,7 +2322,7 @@
       <c r="D101" s="4">
         <v>0.2</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="4">
         <v>-0.91344000000000003</v>
       </c>
     </row>
@@ -2346,7 +2339,7 @@
       <c r="D102" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="4">
         <v>-0.83472000000000002</v>
       </c>
     </row>
@@ -2363,7 +2356,7 @@
       <c r="D103" s="4">
         <v>0.01</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="4">
         <v>-0.94164000000000003</v>
       </c>
     </row>
@@ -2380,7 +2373,7 @@
       <c r="D104" s="4">
         <v>0.1</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="4">
         <v>-0.50678999999999996</v>
       </c>
     </row>
@@ -2397,7 +2390,7 @@
       <c r="D105" s="4">
         <v>0.2</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="4">
         <v>-0.4914</v>
       </c>
     </row>
@@ -2414,7 +2407,7 @@
       <c r="D106" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="4">
         <v>-0.88982000000000006</v>
       </c>
     </row>
@@ -2431,7 +2424,7 @@
       <c r="D107" s="4">
         <v>0.01</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="4">
         <v>-0.88714000000000004</v>
       </c>
     </row>
@@ -2448,7 +2441,7 @@
       <c r="D108" s="4">
         <v>0.1</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="4">
         <v>-0.93313999999999997</v>
       </c>
     </row>
@@ -2465,7 +2458,7 @@
       <c r="D109" s="4">
         <v>0.2</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="4">
         <v>-0.94835999999999998</v>
       </c>
     </row>
@@ -2482,7 +2475,7 @@
       <c r="D110" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="4">
         <v>-0.87646999999999997</v>
       </c>
     </row>
@@ -2499,7 +2492,7 @@
       <c r="D111" s="4">
         <v>0.01</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="4">
         <v>-0.86648999999999998</v>
       </c>
     </row>
@@ -2516,7 +2509,7 @@
       <c r="D112" s="4">
         <v>0.1</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="4">
         <v>-0.93996999999999997</v>
       </c>
     </row>
@@ -2533,7 +2526,7 @@
       <c r="D113" s="4">
         <v>0.2</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="4">
         <v>-1.0402</v>
       </c>
     </row>
@@ -2550,7 +2543,7 @@
       <c r="D114" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="4">
         <v>-0.78351000000000004</v>
       </c>
     </row>
@@ -2567,7 +2560,7 @@
       <c r="D115" s="4">
         <v>0.01</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="4">
         <v>-0.81266000000000005</v>
       </c>
     </row>
@@ -2584,7 +2577,7 @@
       <c r="D116" s="4">
         <v>0.1</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="4">
         <v>-0.86224000000000001</v>
       </c>
     </row>
@@ -2601,7 +2594,7 @@
       <c r="D117" s="4">
         <v>0.2</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="4">
         <v>-0.87995000000000001</v>
       </c>
     </row>
@@ -2618,7 +2611,7 @@
       <c r="D118" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="4">
         <v>-0.89261000000000001</v>
       </c>
     </row>
@@ -2635,7 +2628,7 @@
       <c r="D119" s="4">
         <v>0.01</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="4">
         <v>-0.92464999999999997</v>
       </c>
     </row>
@@ -2652,7 +2645,7 @@
       <c r="D120" s="4">
         <v>0.1</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="4">
         <v>-0.90464</v>
       </c>
     </row>
@@ -2669,7 +2662,7 @@
       <c r="D121" s="4">
         <v>0.2</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="4">
         <v>-0.79535999999999996</v>
       </c>
     </row>
@@ -2686,7 +2679,7 @@
       <c r="D122" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="4">
         <v>-0.87785000000000002</v>
       </c>
     </row>
@@ -2703,7 +2696,7 @@
       <c r="D123" s="4">
         <v>0.01</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="4">
         <v>-0.88844999999999996</v>
       </c>
     </row>
@@ -2720,7 +2713,7 @@
       <c r="D124" s="4">
         <v>0.1</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="4">
         <v>-0.91391999999999995</v>
       </c>
     </row>
@@ -2737,7 +2730,7 @@
       <c r="D125" s="4">
         <v>0.2</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="4">
         <v>-0.94025000000000003</v>
       </c>
     </row>
@@ -2754,7 +2747,7 @@
       <c r="D126" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="4">
         <v>-0.87519000000000002</v>
       </c>
     </row>
@@ -2771,7 +2764,7 @@
       <c r="D127" s="4">
         <v>0.01</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="4">
         <v>-0.86377999999999999</v>
       </c>
     </row>
@@ -2788,7 +2781,7 @@
       <c r="D128" s="4">
         <v>0.1</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="4">
         <v>-0.93479000000000001</v>
       </c>
     </row>
@@ -2805,7 +2798,7 @@
       <c r="D129" s="4">
         <v>0.2</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="4">
         <v>-0.18762000000000001</v>
       </c>
     </row>
@@ -2822,7 +2815,7 @@
       <c r="D130" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="4">
         <v>-0.89934999999999998</v>
       </c>
     </row>
@@ -2839,7 +2832,7 @@
       <c r="D131" s="4">
         <v>0.01</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="4">
         <v>-0.92515000000000003</v>
       </c>
     </row>
@@ -2856,7 +2849,7 @@
       <c r="D132" s="4">
         <v>0.1</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="4">
         <v>-0.33860000000000001</v>
       </c>
     </row>
@@ -2873,7 +2866,7 @@
       <c r="D133" s="4">
         <v>0.2</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="4">
         <v>0.98043000000000002</v>
       </c>
     </row>
@@ -2890,7 +2883,7 @@
       <c r="D134" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="4">
         <v>-0.82299999999999995</v>
       </c>
     </row>
@@ -2907,7 +2900,7 @@
       <c r="D135" s="4">
         <v>0.01</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="4">
         <v>0.42048999999999997</v>
       </c>
     </row>
@@ -2924,7 +2917,7 @@
       <c r="D136" s="4">
         <v>0.1</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="4">
         <v>0.59596000000000005</v>
       </c>
     </row>
@@ -2941,7 +2934,7 @@
       <c r="D137" s="4">
         <v>0.2</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="4">
         <v>-0.15548000000000001</v>
       </c>
     </row>
@@ -2958,7 +2951,7 @@
       <c r="D138" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="4">
         <v>-0.72907999999999995</v>
       </c>
     </row>
@@ -2975,7 +2968,7 @@
       <c r="D139" s="4">
         <v>0.01</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="4">
         <v>-3.8052000000000002E-4</v>
       </c>
     </row>
@@ -2992,7 +2985,7 @@
       <c r="D140" s="4">
         <v>0.1</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="4">
         <v>-2.0723999999999999E-2</v>
       </c>
     </row>
@@ -3009,7 +3002,7 @@
       <c r="D141" s="4">
         <v>0.2</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="4">
         <v>0.11792</v>
       </c>
     </row>
@@ -3026,7 +3019,7 @@
       <c r="D142" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="4">
         <v>-0.75034000000000001</v>
       </c>
     </row>
@@ -3043,7 +3036,7 @@
       <c r="D143" s="4">
         <v>0.01</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="4">
         <v>-0.3614</v>
       </c>
     </row>
@@ -3060,7 +3053,7 @@
       <c r="D144" s="4">
         <v>0.1</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="4">
         <v>-7.5860000000000003</v>
       </c>
     </row>
@@ -3077,7 +3070,7 @@
       <c r="D145" s="4">
         <v>0.2</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="4">
         <v>6.1931E-2</v>
       </c>
     </row>
@@ -3094,7 +3087,7 @@
       <c r="D146" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="4">
         <v>-0.32883000000000001</v>
       </c>
     </row>
@@ -3111,7 +3104,7 @@
       <c r="D147" s="4">
         <v>0.01</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="4">
         <v>-0.40378999999999998</v>
       </c>
     </row>
@@ -3128,7 +3121,7 @@
       <c r="D148" s="4">
         <v>0.1</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="4">
         <v>0.87594000000000005</v>
       </c>
     </row>
@@ -3145,7 +3138,7 @@
       <c r="D149" s="4">
         <v>0.2</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="4">
         <v>-0.76717999999999997</v>
       </c>
     </row>
@@ -3162,7 +3155,7 @@
       <c r="D150" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="4">
         <v>-0.80476999999999999</v>
       </c>
     </row>
@@ -3179,7 +3172,7 @@
       <c r="D151" s="4">
         <v>0.01</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="4">
         <v>0.69205000000000005</v>
       </c>
     </row>
@@ -3196,7 +3189,7 @@
       <c r="D152" s="4">
         <v>0.1</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="4">
         <v>0.88854</v>
       </c>
     </row>
@@ -3213,7 +3206,7 @@
       <c r="D153" s="4">
         <v>0.2</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="4">
         <v>0.83213000000000004</v>
       </c>
     </row>
@@ -3230,7 +3223,7 @@
       <c r="D154" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="4">
         <v>-0.69013000000000002</v>
       </c>
     </row>
@@ -3247,7 +3240,7 @@
       <c r="D155" s="4">
         <v>0.01</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="4">
         <v>0.65951000000000004</v>
       </c>
     </row>
@@ -3264,7 +3257,7 @@
       <c r="D156" s="4">
         <v>0.1</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="4">
         <v>0.72979000000000005</v>
       </c>
     </row>
@@ -3281,7 +3274,7 @@
       <c r="D157" s="4">
         <v>0.2</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="4">
         <v>0.65902000000000005</v>
       </c>
     </row>
@@ -3298,7 +3291,7 @@
       <c r="D158" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="4">
         <v>-0.66588000000000003</v>
       </c>
     </row>
@@ -3315,7 +3308,7 @@
       <c r="D159" s="4">
         <v>0.01</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="4">
         <v>-0.73292000000000002</v>
       </c>
     </row>
@@ -3332,7 +3325,7 @@
       <c r="D160" s="4">
         <v>0.1</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="4">
         <v>-4.0293000000000002E-5</v>
       </c>
     </row>
@@ -3349,7 +3342,7 @@
       <c r="D161" s="4">
         <v>0.2</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="4">
         <v>-9.1690000000000005</v>
       </c>
     </row>
@@ -3366,7 +3359,7 @@
       <c r="D162" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="4">
         <v>-0.19688</v>
       </c>
     </row>
@@ -3383,7 +3376,7 @@
       <c r="D163" s="4">
         <v>0.01</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="4">
         <v>-0.25337999999999999</v>
       </c>
     </row>
@@ -3400,7 +3393,7 @@
       <c r="D164" s="4">
         <v>0.1</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="4">
         <v>0.45616000000000001</v>
       </c>
     </row>
@@ -3417,7 +3410,7 @@
       <c r="D165" s="4">
         <v>0.2</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="4">
         <v>0.71387</v>
       </c>
     </row>
@@ -3434,7 +3427,7 @@
       <c r="D166" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="4">
         <v>-0.27302999999999999</v>
       </c>
     </row>
@@ -3451,7 +3444,7 @@
       <c r="D167" s="4">
         <v>0.01</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="4">
         <v>8.6462999999999998E-2</v>
       </c>
     </row>
@@ -3468,7 +3461,7 @@
       <c r="D168" s="4">
         <v>0.1</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="4">
         <v>0.50468000000000002</v>
       </c>
     </row>
@@ -3485,7 +3478,7 @@
       <c r="D169" s="4">
         <v>0.2</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="4">
         <v>0.73094000000000003</v>
       </c>
     </row>
@@ -3502,7 +3495,7 @@
       <c r="D170" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="4">
         <v>0.16783999999999999</v>
       </c>
     </row>
@@ -3519,7 +3512,7 @@
       <c r="D171" s="4">
         <v>0.01</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="4">
         <v>0.16250999999999999</v>
       </c>
     </row>
@@ -3536,7 +3529,7 @@
       <c r="D172" s="4">
         <v>0.1</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="4">
         <v>0.71113000000000004</v>
       </c>
     </row>
@@ -3553,7 +3546,7 @@
       <c r="D173" s="4">
         <v>0.2</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="4">
         <v>0.79771000000000003</v>
       </c>
     </row>
@@ -3570,7 +3563,7 @@
       <c r="D174" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="4">
         <v>-0.65468000000000004</v>
       </c>
     </row>
@@ -3587,7 +3580,7 @@
       <c r="D175" s="4">
         <v>0.01</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="4">
         <v>-0.66657999999999995</v>
       </c>
     </row>
@@ -3604,7 +3597,7 @@
       <c r="D176" s="4">
         <v>0.1</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="4">
         <v>-1.0644</v>
       </c>
     </row>
@@ -3621,7 +3614,7 @@
       <c r="D177" s="4">
         <v>0.2</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="4">
         <v>-1.8107</v>
       </c>
     </row>
@@ -3638,7 +3631,7 @@
       <c r="D178" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="4">
         <v>-0.30148000000000003</v>
       </c>
     </row>
@@ -3655,7 +3648,7 @@
       <c r="D179" s="4">
         <v>0.01</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="4">
         <v>-0.10630000000000001</v>
       </c>
     </row>
@@ -3672,7 +3665,7 @@
       <c r="D180" s="4">
         <v>0.1</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="4">
         <v>-0.31999</v>
       </c>
     </row>
@@ -3689,7 +3682,7 @@
       <c r="D181" s="4">
         <v>0.2</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="4">
         <v>0.15226999999999999</v>
       </c>
     </row>
@@ -3706,7 +3699,7 @@
       <c r="D182" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E182" s="4">
         <v>-0.3392</v>
       </c>
     </row>
@@ -3723,7 +3716,7 @@
       <c r="D183" s="4">
         <v>0.01</v>
       </c>
-      <c r="E183" s="7">
+      <c r="E183" s="4">
         <v>-1.0887000000000001E-2</v>
       </c>
     </row>
@@ -3740,7 +3733,7 @@
       <c r="D184" s="4">
         <v>0.1</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="4">
         <v>7.7616000000000004E-2</v>
       </c>
     </row>
@@ -3757,7 +3750,7 @@
       <c r="D185" s="4">
         <v>0.2</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="4">
         <v>0.37407000000000001</v>
       </c>
     </row>
@@ -3774,7 +3767,7 @@
       <c r="D186" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="4">
         <v>-0.40187</v>
       </c>
     </row>
@@ -3791,7 +3784,7 @@
       <c r="D187" s="4">
         <v>0.01</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E187" s="4">
         <v>-4.1910000000000003E-2</v>
       </c>
     </row>
@@ -3808,7 +3801,7 @@
       <c r="D188" s="4">
         <v>0.1</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E188" s="4">
         <v>0.22558</v>
       </c>
     </row>
@@ -3825,7 +3818,7 @@
       <c r="D189" s="4">
         <v>0.2</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E189" s="4">
         <v>0.51802999999999999</v>
       </c>
     </row>
@@ -3842,7 +3835,7 @@
       <c r="D190" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E190" s="4">
         <v>-0.64441000000000004</v>
       </c>
     </row>
@@ -3859,7 +3852,7 @@
       <c r="D191" s="4">
         <v>0.01</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E191" s="4">
         <v>-0.65998999999999997</v>
       </c>
     </row>
@@ -3876,7 +3869,7 @@
       <c r="D192" s="4">
         <v>0.1</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E192" s="4">
         <v>-0.66862999999999995</v>
       </c>
     </row>
@@ -3893,7 +3886,7 @@
       <c r="D193" s="4">
         <v>0.2</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E193" s="4">
         <v>-1.2206999999999999</v>
       </c>
     </row>
@@ -3910,7 +3903,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E56"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4866,7 +4859,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="C2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4990,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E0BDF3-A401-4585-9473-29D44DE96F8B}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/1. Building/Finals/Stat_106.xlsx
+++ b/1. Building/Finals/Stat_106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tln229\Downloads\Python\1. Building\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2656C-11A6-45B9-8C60-7B81C790812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28459BF4-7132-4520-96D7-E4B49E1C71F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GP" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>n_train</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>ard</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -159,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +464,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>32</v>
       </c>
@@ -469,8 +487,17 @@
       <c r="C2" s="4">
         <v>-540.14869999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="4">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-2224.7642000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>32</v>
       </c>
@@ -480,8 +507,17 @@
       <c r="C3" s="4">
         <v>-4.4877000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="4">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-2226.7620000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>32</v>
       </c>
@@ -491,8 +527,17 @@
       <c r="C4" s="4">
         <v>-1.7421</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="4">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-2207.2215999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>32</v>
       </c>
@@ -502,8 +547,17 @@
       <c r="C5" s="4">
         <v>-1.7042999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="4">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-2205.2797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>64</v>
       </c>
@@ -513,8 +567,17 @@
       <c r="C6" s="4">
         <v>-567.49670000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="4">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-149.24459999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>64</v>
       </c>
@@ -524,8 +587,17 @@
       <c r="C7" s="4">
         <v>-72.028800000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="4">
+        <v>64</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-24.7944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>64</v>
       </c>
@@ -535,8 +607,17 @@
       <c r="C8" s="4">
         <v>-55.5518</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="4">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-22.2531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>64</v>
       </c>
@@ -546,8 +627,17 @@
       <c r="C9" s="4">
         <v>-56.127499999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="4">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-16.2225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>128</v>
       </c>
@@ -557,8 +647,17 @@
       <c r="C10" s="4">
         <v>-5.1075999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="4">
+        <v>128</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-2.5085999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>128</v>
       </c>
@@ -568,8 +667,17 @@
       <c r="C11" s="4">
         <v>0.42659999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="4">
+        <v>128</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.70089999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>128</v>
       </c>
@@ -579,8 +687,17 @@
       <c r="C12" s="4">
         <v>0.69310000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="4">
+        <v>128</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.83279999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>128</v>
       </c>
@@ -590,9 +707,19 @@
       <c r="C13" s="4">
         <v>0.77980000000000005</v>
       </c>
+      <c r="F13" s="4">
+        <v>128</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.90280000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -600,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE41F53-5E36-4979-B156-444350A2004A}">
   <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
